--- a/asset/medicineExcel.xlsx
+++ b/asset/medicineExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -60,14 +60,320 @@
     <t>safetyInformation</t>
   </si>
   <si>
-    <t>paracetamol</t>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <r>
+      <t>Aspirin is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a type of nonsteroidal anti-inflammatory drug (NSAID) that can treat mild to moderate pain, inflammation or arthritis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ascriptin.</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/packings-pills-capsules-medicines_1339-2259.jpg?size=626&amp;ext=jpg&amp;ga=GA1.1.515127885.1687976465&amp;semt=ais</t>
+  </si>
+  <si>
+    <r>
+      <t>Aspirin is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a type of nonsteroidal anti-inflammatory drug (NSAID) that can treat mild to moderate pain, inflammation or arthritis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aspirin is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>reduce fever and relieve mild to moderate pain from conditions such as muscle aches, toothaches, common cold, and headaches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aspirin is a type of nonsteroidal anti-inflammatory drug (NSAID) that can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>treat mild to moderate pain, inflammation or arthritis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Take aspirin exactly as directed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Do not take more or less of it or take it more often than directed by the package label or prescribed by your doctor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This medication </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>can cause serious ulcers and bleeding in the stomach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It can happen with no warning. Smoking, drinking alcohol, older age, and poor health can also increase risks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>Amoxicillin is an antibiotic medication belonging to the aminopenicillin class of the penicillin family. </t>
+  </si>
+  <si>
+    <t>Amoxil</t>
+  </si>
+  <si>
+    <r>
+      <t>Amoxicillin interacts with medications like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>warfarin, allopurinol, and probenecid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It can also cause trouble with alcohol and interact with live vaccines for cholera and typhoid.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/different-pills-package_23-2147983095.jpg?size=626&amp;ext=jpg&amp;ga=GA1.1.515127885.1687976465&amp;semt=sph</t>
+  </si>
+  <si>
+    <r>
+      <t>Amoxicillin is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a penicillin antibiotic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It is used to treat bacterial infections, such as chest infections (including pneumonia) and dental abscesses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>used to treat bacterial infections, such as chest infections (including pneumonia) and dental abscesses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to treat bacterial infections, such as chest infections (including pneumonia) and dental abscesses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Amoxicillin comes as a capsule, a tablet, a chewable tablet, and as a suspension (liquid) to take by mouth. It is usually taken </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>every 12 hours (twice a day) or every 8 hours (three times a day) with or without food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Around 1 in 15 people have an allergic reaction to amoxicillin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. In most cases, the allergic reaction is mild and can take the form of a skin rash.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avoid drinking alcohol while you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> are taking aspirin. Heavy drinking can increase your risk of stomach bleeding.</t>
+    </r>
+  </si>
+  <si>
+    <t>7i09uuPzHipLgw2j1Nbe</t>
+  </si>
+  <si>
+    <t>8CrdH8SjHuCWsbLgTiMb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,10 +382,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70757A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,11 +451,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,101 +766,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>123134124</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>12314142124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -529,7 +930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
